--- a/計分表/鉛球_d/男乙鉛球項目成績紀錄_裁判_d.xlsx
+++ b/計分表/鉛球_d/男乙鉛球項目成績紀錄_裁判_d.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593EFFFE-F64F-4E93-A3B5-3CE35D327830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCCAD90-0608-4219-AEA9-CAB1E8D2C477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>朱栩鋒</t>
   </si>
   <si>
-    <t>温子慶</t>
-  </si>
-  <si>
     <t>鄭自然</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
       <rPr>
         <sz val="24"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -162,7 +159,7 @@
       <rPr>
         <sz val="24"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -175,7 +172,7 @@
       <rPr>
         <sz val="24"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -186,7 +183,7 @@
       <rPr>
         <sz val="24"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -202,32 +199,35 @@
     <t>謝卓凱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>林展揚</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -242,7 +242,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +271,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -294,7 +294,7 @@
     <font>
       <sz val="25"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,14 +331,14 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -346,7 +346,7 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -598,7 +598,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -629,45 +629,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,6 +636,45 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1020,11 +1020,11 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
@@ -1036,32 +1036,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="46.95" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="34.200000000000003">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1076,55 +1076,55 @@
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" ht="25.2">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="25.8">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="23" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="24" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="26.4" thickBot="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="11">
         <v>1</v>
       </c>
@@ -1137,18 +1137,18 @@
       <c r="G6" s="12">
         <v>4</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A7" s="33">
+      <c r="A7" s="20">
         <v>4105</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4"/>
@@ -1160,13 +1160,13 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="21">
         <v>5110</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
@@ -1178,13 +1178,13 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A9" s="34">
+      <c r="A9" s="21">
         <v>6109</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2"/>
@@ -1196,13 +1196,13 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A10" s="34">
+      <c r="A10" s="21">
         <v>1114</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2"/>
@@ -1214,13 +1214,13 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="21">
         <v>2113</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="2"/>
@@ -1232,13 +1232,13 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="21">
         <v>3114</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2"/>
@@ -1250,13 +1250,13 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="21">
         <v>4115</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2"/>
@@ -1268,13 +1268,13 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="21">
         <v>5111</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="2"/>
@@ -1286,13 +1286,13 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="21">
         <v>6110</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="2"/>
@@ -1304,13 +1304,13 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="68.25" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="21">
         <v>1115</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2"/>
@@ -1322,13 +1322,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="68.25" customHeight="1">
-      <c r="A17" s="34">
+      <c r="A17" s="21">
         <v>2114</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2"/>
@@ -1340,13 +1340,13 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="68.25" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="21">
         <v>3115</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2"/>
